--- a/input/meas/RAMSAR/ramsar.xlsx
+++ b/input/meas/RAMSAR/ramsar.xlsx
@@ -78,7 +78,9 @@
 47% of Contracting Parties have included wetland issues within National Policies or measures on agriculture. (National Reports to COP12). </t>
   </si>
   <si>
-    <t>% of Parties that have made assessment of ecosystem services of Ramsar Sites. (Data source: National Reports); % of Parties that have included wetland issues within national strategies and planning processes such as water resource management and water efficiency plans. (Data source: National Reports); % of Parties that have included wetland issues within National Policies or measures on agriculture. (Data source: National Reports).</t>
+    <t>% of Parties that have made assessment of ecosystem services of Ramsar Sites. (Data source: National Reports)
+% of Parties that have included wetland issues within national strategies and planning processes such as water resource management and water efficiency plans. (Data source: National Reports)
+% of Parties that have included wetland issues within National Policies or measures on agriculture. (Data source: National Reports).</t>
   </si>
   <si>
     <t>RAMSAR_SG1_T2</t>

--- a/input/meas/RAMSAR/ramsar.xlsx
+++ b/input/meas/RAMSAR/ramsar.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JLU-SU\Documents\GitHub\IPBES-Data\IPBES_Data_Indicators\input\meas\RAMSAR\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F8B252-BCE4-4597-9366-3DBC07603D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="20" yWindow="380" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="ramsar" sheetId="1" r:id="rId4"/>
+    <sheet name="ramsar" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -204,15 +213,6 @@
 Number of Ramsar Sites that have effective, implemented management plans. (Data source: new National Report question). 
 27% of Parties have made assessments of effective management of Ramsar sites. (National Reports to COP12). 
 43% (950 of Ramsar Sites have updated Ramsar Information Sheets. (Report of the Secretary General pursuant to Article 8.2 COP12 Doc.7). </t>
-  </si>
-  <si>
-    <t>Number of Ramsar Sites that have effective, implemented management plans. (Data source: National Report). 
-Number of Ramsar Sites that have effective, implemented management planning18. (Data source: new National Report question). 
-% of Parties that have made assessments of effective management of Ramsar Sites. (Data source: National Reports). 
-% of Ramsar Sites that have updated Ramsar Information Sheets. (Data source: Ramsar Sites database). 
-{Coverage of wetland dependent bird populations by designated Ramsar Sites. Indicator from Resolution IX.1 to be developed}. 
-{Coverage of wetland dependent non-avian populations by designated Ramsar Sites. Indicator from Resolution IX.1 to be developed}. 
-{% loss of IUCN Red Listed species from Ramsar Sites}</t>
   </si>
   <si>
     <t>RAMSAR_SG2_T6</t>
@@ -249,12 +249,6 @@
 (Ramsar Sites database, June 2015). </t>
   </si>
   <si>
-    <t>Number of Ramsar sites that have been designated. (Data source: Ramsar Sites database). 
-Total hectares of Ramsar sites that have been designated. (Data source: Ramsar Sites database). 
-Number of transboundary Ramsar Sites that have been designated. (Data source: Ramsar Sites database). 
-Number of Ramsar Sites19 designated for the following under represented wetland types: Karst and other subterranean hydrological systems – [XXX Sites]; Coral reefs – [XXX Sites]; Wet grasslands – [XXX Sites]; Peatlands – [XXX Sites]; Sea-grass beds – [XXX Sites]; Mangroves – [XXX Sites]; Temporary Pools – [XXX Sites]; Bivalve (shellfish) reefs – [XXX Sites] (Data source: Ramsar Sites database)</t>
-  </si>
-  <si>
     <t>RAMSAR_SG2_T7</t>
   </si>
   <si>
@@ -528,13 +522,145 @@
     <t>Contracting Parties with support from Secretariat and IOPs</t>
   </si>
   <si>
+    <t>RAMSAR_OG4_T17</t>
+  </si>
+  <si>
+    <t>Financial and other resources for effectively implementing the fourth Ramsar Strategic Plan 2016 – 2024 from all sources are made available</t>
+  </si>
+  <si>
+    <t>T19</t>
+  </si>
+  <si>
+    <t>The Secretariat’s Partnership team will raise non-core funds to fund priority convention activities.</t>
+  </si>
+  <si>
+    <t>Ramsar Secretariat, 
+Contracting Parties, IOPs, development assistance agencies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21% of Contracting Parties have provided additional financial support through voluntary contributions to non-core funded Convention activities. (National Reports to COP12). 
+40% of Contracting Parties have received funding support from development assistance agencies for national wetlands conservation and management. (National Reports to COP12). </t>
+  </si>
+  <si>
+    <t>% of Contracting Parties that have provided additional financial support through voluntary contributions to non-core funded Convention activities. (National Reports to COP12). 
+% of Parties that have received funding support from development assistance agencies for national wetlands conservation and management. (Data source: National Reports). 
+{Indicator(s) related to flows of financing related to different aspects of Strategic Plan implementation}.</t>
+  </si>
+  <si>
+    <t>RAMSAR_OG4_T18</t>
+  </si>
+  <si>
+    <t>International cooperation is strengthened at all levels</t>
+  </si>
+  <si>
+    <t>Regional Initiatives, multilateral and bilateral agreements, 
+Memorandums of 
+Understanding. 
+Ramsar Handbook 5: 
+Partnerships 
+[http://www.ramsar.org/sites/ default/files/documents/pdf/li b/hbk4-05.pdf]
+Ramsar Handbook 20: 
+International co-operation [http://www.ramsar.org/sites/ default/files/documents/pdf/li b/hbk4-20.pdf ]</t>
+  </si>
+  <si>
+    <t>Ramsar Secretariat, 
+Contracting Parties, IOPs, Regional Centres, MEAs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By COP12, [15] Regional Initiatives are in operation under the framework of the Ramsar Convention. (Ramsar Secretariat). 
+68% of Parties have been involved in the development and implementation of a Regional Initiative under the framework of the Convention. (National Reports to COP12).
+Other aspects of co-operation 
+35% of Parties have established networks including twinning arrangements nationally or internationally for knowledge sharing and training for wetlands that share common features. (National Reports to COP12). 
+33% of Parties have effective cooperative management in place for shared wetland systems (for example in shared river basins and coastal zones). (National Reports to COP12). 
+[XX]% of Parties have co-ordination mechanisms for the implementation of MEAs existing at a national level. (Data source: new question for National Reports). 
+At COP12, 168 Parties have acceded to the Ramsar Convention. (Report of the Secretary General to COP12 on the implementation of the Convention, COP12Doc8). 
+At COP12, [16] transboundary Ramsar Sites. (Data source: Ramsar Secretariat). </t>
+  </si>
+  <si>
+    <t>Number of Regional Initiatives successfully implemented. (Data source: National Reports). 
+% of Parties that have been involved in the development and implementation of a Regional Initiative under the framework of the Convention. (Data source: National Reports). 
+% of Parties that have established networks including twinning arrangements nationally or internationally for knowledge sharing and training for wetlands that share common features. (Data source: National Reports). 
+% of Parties that have effective cooperative management in place for shared wetland systems (for example in shared river basins and coastal zones). (Data source: National Reports).
+% of Parties where co-ordination mechanisms for the implementation of MEAs exist at a national level. (Data source: new question for National Reports). 
+Number of Parties which have acceded to the Ramsar Convention. (Data Source: National Reports). 
+Total number of transboundary Ramsar Sites. (Data source: Ramsar Sites Database).</t>
+  </si>
+  <si>
+    <t>RAMSAR_OG4_T19</t>
+  </si>
+  <si>
+    <t>Capacity building for implementation of the Convention and the 4th Ramsar Strategic Plan 2016 – 2024 is enhanced.</t>
+  </si>
+  <si>
+    <t>T20</t>
+  </si>
+  <si>
+    <t>Projects, programmes and events that promote wise use of wetlands with the active involvement of wetland 
+managers and users. 
+CEPA plans, World Wetlands Day, training courses. 
+Ramsar Handbook 7: 
+Participatory skills 
+[http://www.ramsar.org/sites/ default/files/documents/pdf/li b/hbk4-07.pdf]</t>
+  </si>
+  <si>
+    <t>20% of Parties have made and assessment of national and local training needs for the implementation of the Convention. (National Reports to COP12).</t>
+  </si>
+  <si>
+    <t>% of Parties that have made an assessment of national and local training needs for the implementation of the Convention. (National Reports to COP12).</t>
+  </si>
+  <si>
+    <t>17 Information based on 131 National Reports received to COP 12.</t>
+  </si>
+  <si>
+    <t>18 Actions for appropriate wetland management that are not necessarily in the context of a formal management plan – Resolution VIII.14</t>
+  </si>
+  <si>
+    <t>19 Totals relate to number of sites containing the relevant habitat site: some sites may contain more than one habitat type and so be counted under each habitat</t>
+  </si>
+  <si>
+    <t>Sources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The 4th Strategic Plan 2016 – 2024 2022 update. Accessed via https://www.ramsar.org/about/convention-wetlands-and-its-mission/strategic-plan/fourth-strategic-plan in January 2025
+</t>
+  </si>
+  <si>
+    <t>Annex 2: Synergies between CBD Global Biodiversity Framework adopted by the 15th Meeting of the Conference of the Parties to the Convention on Biological Diversity (CBD/COP/DEC/15/4) and the Ramsar Convention on Wetlands Strategic Plan Targets</t>
+  </si>
+  <si>
+    <t>Number of Ramsar sites that have been designated. (Data source: Ramsar Sites database). 
+Total hectares of Ramsar sites that have been designated. (Data source: Ramsar Sites database). 
+Number of transboundary Ramsar Sites that have been designated. (Data source: Ramsar Sites database). 
+Number of Ramsar Sites designated for the following under represented wetland types: Karst and other subterranean hydrological systems; Coral reefs; Wet grasslands; Peatland; Sea-grass beds; Mangroves; Temporary Pools; Bivalve (shellfish) reefs (Data source: Ramsar Sites database)</t>
+  </si>
+  <si>
+    <t>Number of Ramsar Sites that have effective, implemented management plans. (Data source: National Report). 
+Number of Ramsar Sites that have effective, implemented management planning. (Data source: new National Report question). 
+% of Parties that have made assessments of effective management of Ramsar Sites. (Data source: National Reports). 
+% of Ramsar Sites that have updated Ramsar Information Sheets. (Data source: Ramsar Sites database). 
+{Coverage of wetland dependent bird populations by designated Ramsar Sites. Indicator from Resolution IX.1 to be developed}. 
+{Coverage of wetland dependent non-avian populations by designated Ramsar Sites. Indicator from Resolution IX.1 to be developed}. 
+{% loss of IUCN Red Listed species from Ramsar Sites}</t>
+  </si>
+  <si>
+    <t>% of Parties that have branded World Wetlands Day activities. (Data source: National Reports). 
+Number of World Wetland Day activities or events reported to the Secretariat. (Data source: Ramsar CEPA program). 
+Number of internet references to World Wetland Day activities. (Data source: internet analysis). 
+Number of internet references to the Ramsar Convention. (Data source: internet analysis). 
+Number of social media links to World Wetland Day. (Data source: social media analysis). 
+% of Parties with a) a governmental CEPA National Focal Point and b) a non-governmental National Focal Point (Data source: National Reports). 
+% of Parties that have established national action plans for wetland CEPA. (Data source: National Reports). 
+Number of centres (visitor centres, interpretation centres, education centres) have been established in Ramsar Sites. (Data source: National Reports). 
+Number of centres at other wetlands. (Data source: National Reports). 
+{Indicator(s) related to whether and how wetland conservation and wise-use issues are included formal education programmes}.</t>
+  </si>
+  <si>
     <t xml:space="preserve">World Wetland Day 
 89% of Parties have branded Word Wetlands Day activities. (National Reports to COP12). 
 In 2015 884 World Wetland Day activities or events reported to the Secretariat. (Data source: Ramsar Secretariat CEPA program) 
-In 2015, [379} internet references (in the press) to World Wetland Day activities. (Data source: Meltwater internet analysis). 
-In 2015, [58, 566} individual visits to the World Wetlands Day website. {Data source: worldwetlandsday.org website }. 
-In 2015 Social media links to World Wetland Day: 16,135,974 people reached in FaceBook . (Data source: 
-https://www.facebook.com/RamsarConventionOnWetlands) . 
+In 2015, internet references (in the press) to World Wetland Day activities. (Data source: Meltwater internet analysis). 
+In 2015, individual visits to the World Wetlands Day website. (Data source: worldwetlandsday.org website ). 
+In 2015 Social media links to World Wetland Day: 16,135,974 people reached in FaceBook . (Data source: https://www.facebook.com/RamsarConventionOnWetlands) . 
 795 views of WWD message from Youtube channel (Data source Ramsar Youtube Channel 
 https://www.youtube.com/user/RamsarConvention) 
 292,100 reached in Twitter (Data source 
@@ -547,137 +673,20 @@
 (National Reports to COP12). 
 By COP12, 309 centres established at other wetlands. (National Reports to COP12). </t>
   </si>
-  <si>
-    <t>% of Parties that have branded World Wetlands Day activities. (Data source: National Reports). 
-Number of World Wetland Day activities or events reported to the Secretariat. (Data source: Ramsar CEPA program). 
-Number of internet references to World Wetland Day activities. {Data source: internet analysis}. 
-Number of internet references to the Ramsar Convention. {Data source: internet analysis}. 
-Number of social media links to World Wetland Day. {Data source: social media analysis}. 
-% of Parties with a) a governmental CEPA National Focal Point and b) a non-governmental National Focal Point (Data source: National Reports). 
-% of Parties that have established national action plans for wetland CEPA. (Data source: National Reports). 
-Number of centres (visitor centres, interpretation centres, education centres) have been established in Ramsar Sites. (Data source: National Reports). 
-Number of centres at other wetlands. (Data source: National Reports). 
-{Indicator(s) related to whether and how wetland conservation and wise-use issues are included formal education programmes}.</t>
-  </si>
-  <si>
-    <t>RAMSAR_OG4_T17</t>
-  </si>
-  <si>
-    <t>Financial and other resources for effectively implementing the fourth Ramsar Strategic Plan 2016 – 2024 from all sources are made available</t>
-  </si>
-  <si>
-    <t>T19</t>
-  </si>
-  <si>
-    <t>The Secretariat’s Partnership team will raise non-core funds to fund priority convention activities.</t>
-  </si>
-  <si>
-    <t>Ramsar Secretariat, 
-Contracting Parties, IOPs, development assistance agencies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21% of Contracting Parties have provided additional financial support through voluntary contributions to non-core funded Convention activities. (National Reports to COP12). 
-40% of Contracting Parties have received funding support from development assistance agencies for national wetlands conservation and management. (National Reports to COP12). </t>
-  </si>
-  <si>
-    <t>% of Contracting Parties that have provided additional financial support through voluntary contributions to non-core funded Convention activities. (National Reports to COP12). 
-% of Parties that have received funding support from development assistance agencies for national wetlands conservation and management. (Data source: National Reports). 
-{Indicator(s) related to flows of financing related to different aspects of Strategic Plan implementation}.</t>
-  </si>
-  <si>
-    <t>RAMSAR_OG4_T18</t>
-  </si>
-  <si>
-    <t>International cooperation is strengthened at all levels</t>
-  </si>
-  <si>
-    <t>Regional Initiatives, multilateral and bilateral agreements, 
-Memorandums of 
-Understanding. 
-Ramsar Handbook 5: 
-Partnerships 
-[http://www.ramsar.org/sites/ default/files/documents/pdf/li b/hbk4-05.pdf]
-Ramsar Handbook 20: 
-International co-operation [http://www.ramsar.org/sites/ default/files/documents/pdf/li b/hbk4-20.pdf ]</t>
-  </si>
-  <si>
-    <t>Ramsar Secretariat, 
-Contracting Parties, IOPs, Regional Centres, MEAs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">By COP12, [15] Regional Initiatives are in operation under the framework of the Ramsar Convention. (Ramsar Secretariat). 
-68% of Parties have been involved in the development and implementation of a Regional Initiative under the framework of the Convention. (National Reports to COP12).
-Other aspects of co-operation 
-35% of Parties have established networks including twinning arrangements nationally or internationally for knowledge sharing and training for wetlands that share common features. (National Reports to COP12). 
-33% of Parties have effective cooperative management in place for shared wetland systems (for example in shared river basins and coastal zones). (National Reports to COP12). 
-[XX]% of Parties have co-ordination mechanisms for the implementation of MEAs existing at a national level. (Data source: new question for National Reports). 
-At COP12, 168 Parties have acceded to the Ramsar Convention. (Report of the Secretary General to COP12 on the implementation of the Convention, COP12Doc8). 
-At COP12, [16] transboundary Ramsar Sites. (Data source: Ramsar Secretariat). </t>
-  </si>
-  <si>
-    <t>Number of Regional Initiatives successfully implemented. (Data source: National Reports). 
-% of Parties that have been involved in the development and implementation of a Regional Initiative under the framework of the Convention. (Data source: National Reports). 
-% of Parties that have established networks including twinning arrangements nationally or internationally for knowledge sharing and training for wetlands that share common features. (Data source: National Reports). 
-% of Parties that have effective cooperative management in place for shared wetland systems (for example in shared river basins and coastal zones). (Data source: National Reports).
-% of Parties where co-ordination mechanisms for the implementation of MEAs exist at a national level. (Data source: new question for National Reports). 
-Number of Parties which have acceded to the Ramsar Convention. (Data Source: National Reports). 
-Total number of transboundary Ramsar Sites. (Data source: Ramsar Sites Database).</t>
-  </si>
-  <si>
-    <t>RAMSAR_OG4_T19</t>
-  </si>
-  <si>
-    <t>Capacity building for implementation of the Convention and the 4th Ramsar Strategic Plan 2016 – 2024 is enhanced.</t>
-  </si>
-  <si>
-    <t>T20</t>
-  </si>
-  <si>
-    <t>Projects, programmes and events that promote wise use of wetlands with the active involvement of wetland 
-managers and users. 
-CEPA plans, World Wetlands Day, training courses. 
-Ramsar Handbook 7: 
-Participatory skills 
-[http://www.ramsar.org/sites/ default/files/documents/pdf/li b/hbk4-07.pdf]</t>
-  </si>
-  <si>
-    <t>20% of Parties have made and assessment of national and local training needs for the implementation of the Convention. (National Reports to COP12).</t>
-  </si>
-  <si>
-    <t>% of Parties that have made an assessment of national and local training needs for the implementation of the Convention. (National Reports to COP12).</t>
-  </si>
-  <si>
-    <t>17 Information based on 131 National Reports received to COP 12.</t>
-  </si>
-  <si>
-    <t>18 Actions for appropriate wetland management that are not necessarily in the context of a formal management plan – Resolution VIII.14</t>
-  </si>
-  <si>
-    <t>19 Totals relate to number of sites containing the relevant habitat site: some sites may contain more than one habitat type and so be counted under each habitat</t>
-  </si>
-  <si>
-    <t>Sources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The 4th Strategic Plan 2016 – 2024 2022 update. Accessed via https://www.ramsar.org/about/convention-wetlands-and-its-mission/strategic-plan/fourth-strategic-plan in January 2025
-</t>
-  </si>
-  <si>
-    <t>Annex 2: Synergies between CBD Global Biodiversity Framework adopted by the 15th Meeting of the Conference of the Parties to the Convention on Biological Diversity (CBD/COP/DEC/15/4) and the Ramsar Convention on Wetlands Strategic Plan Targets</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -688,7 +697,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -698,36 +707,43 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -917,24 +933,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.13"/>
-    <col customWidth="1" min="6" max="6" width="36.25"/>
+    <col min="1" max="1" width="17.08984375" customWidth="1"/>
+    <col min="6" max="6" width="36.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -963,7 +984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -992,7 +1013,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1017,11 +1038,11 @@
       <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -1043,14 +1064,14 @@
       <c r="G4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -1079,7 +1100,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
@@ -1101,16 +1122,16 @@
       <c r="G6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -1119,27 +1140,27 @@
         <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -1148,387 +1169,387 @@
         <v>40</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="I8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="H12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="I14" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="H15" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="E16" s="2"/>
+      <c r="H16" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="H16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="G17" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="H17" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="I18" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F18" s="1" t="s">
+    </row>
+    <row r="19" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="E19" s="2"/>
+      <c r="F19" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="E20" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="G20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E20" s="2" t="s">
+    </row>
+    <row r="21" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="F20" s="1" t="s">
+    </row>
+    <row r="22" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H20" s="1" t="s">
+    </row>
+    <row r="23" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="I20" s="1" t="s">
+    </row>
+    <row r="24" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="21">
-      <c r="B21" s="1" t="s">
+    <row r="25" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="22">
-      <c r="B22" s="1" t="s">
+    <row r="26" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="23">
-      <c r="B23" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>